--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\상범\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F584983C-80D5-4B2C-9728-D05E99ECDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61D621-A24C-4926-85F2-3F8297159CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
@@ -158,8 +158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -426,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,10 +445,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -463,7 +463,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -472,27 +472,66 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -515,54 +554,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,6 +664,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E162-4B5D-9C76-D258110F9869}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -688,6 +684,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E162-4B5D-9C76-D258110F9869}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -783,10 +784,10 @@
                 <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.0%">
-                  <c:v>0.74384858649068297</c:v>
+                  <c:v>0.73783102277389245</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.0%">
-                  <c:v>0.25615141350931703</c:v>
+                  <c:v>0.26216897722610749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
   <dimension ref="B1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1828,18 +1829,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
@@ -1904,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>500080</v>
+        <v>499230</v>
       </c>
       <c r="D7" s="2">
         <v>955389</v>
@@ -1914,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>499230</v>
+        <v>500080</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
@@ -2037,7 +2038,7 @@
       </c>
       <c r="C16" s="2">
         <f>SUM(C4:C15)</f>
-        <v>500080</v>
+        <v>499230</v>
       </c>
       <c r="D16" s="2">
         <f>SUM(D4:D15)</f>
@@ -2049,7 +2050,7 @@
       </c>
       <c r="H16" s="2">
         <f>SUM(H4:H15)</f>
-        <v>499230</v>
+        <v>500080</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="8"/>
@@ -2059,7 +2060,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>519540</v>
+        <v>507615</v>
       </c>
       <c r="D17" s="2">
         <v>954544</v>
@@ -2069,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="2">
-        <v>507615</v>
+        <v>519540</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="8"/>
@@ -2080,7 +2081,7 @@
       </c>
       <c r="C18" s="13">
         <f>(C17/C16)-1</f>
-        <v>3.8913773796192652E-2</v>
+        <v>1.6795865633074891E-2</v>
       </c>
       <c r="D18" s="13">
         <f>(D17/D16)-1</f>
@@ -2092,103 +2093,103 @@
       </c>
       <c r="H18" s="11">
         <f>(H17/H16)-1</f>
-        <v>1.6795865633074891E-2</v>
+        <v>3.8913773796192652E-2</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="31">
         <f>SUM(C16:E16)</f>
-        <v>1455469</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="G19" s="16" t="s">
+        <v>1454619</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="37">
         <f>SUM(H16:J16)</f>
-        <v>499230</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+        <v>500080</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="33">
         <f>SUM(C17:E17)</f>
-        <v>1474084</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="19" t="s">
+        <v>1462159</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="G20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="39">
         <f>SUM(H17:J17)</f>
-        <v>507615</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
+        <v>519540</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="22">
         <f>C20-C19</f>
-        <v>18615</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="G21" s="39" t="s">
+        <v>7540</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="G21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="25">
         <f>H20-H19</f>
-        <v>8385</v>
-      </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+        <v>19460</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="35">
         <f>(C20/C19)-1</f>
-        <v>1.278969184503409E-2</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="G22" s="21" t="s">
+        <v>5.1834879098926478E-3</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="41">
         <f>(H20/H19)-1</f>
-        <v>1.6795865633074891E-2</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+        <v>3.8913773796192652E-2</v>
+      </c>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
     </row>
     <row r="25" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="16">
         <f>SUM(C19,H19)</f>
         <v>1954699</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="8">
@@ -2197,7 +2198,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="8">
@@ -2206,7 +2207,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
@@ -2215,25 +2216,25 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="19">
         <f>(C20/C27)</f>
-        <v>0.74384858649068297</v>
+        <v>0.73783102277389245</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="21">
         <f>(H20/C27)</f>
-        <v>0.25615141350931703</v>
+        <v>0.26216897722610749</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="3" t="e">
@@ -2243,19 +2244,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E61D621-A24C-4926-85F2-3F8297159CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AA4E5-B066-4C83-B89C-6666514209D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>4월</t>
   </si>
@@ -149,6 +149,42 @@
   </si>
   <si>
     <t>총 평가 손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지 매수금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지 평가금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지 평가손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레버리지 수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권+금+달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고위험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,8 +194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -420,13 +456,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,31 +557,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,41 +581,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,6 +757,21 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
@@ -729,10 +811,10 @@
             </c:txPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
@@ -754,18 +836,21 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$B$26:$B$31</c15:sqref>
+                    <c15:sqref>'2025년'!$B$26:$B$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$B$30:$B$31</c:f>
+              <c:f>'2025년'!$B$30:$B$32</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>SCHD</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>QQQ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>레버리지</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -775,19 +860,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$C$26:$C$31</c15:sqref>
+                    <c15:sqref>'2025년'!$C$26:$C$32</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$C$30:$C$31</c:f>
+              <c:f>'2025년'!$C$30:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="0.0%">
-                  <c:v>0.73783102277389245</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.55967923308366696</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="0.0%">
-                  <c:v>0.26216897722610749</c:v>
+                <c:pt idx="1" formatCode="0.00%">
+                  <c:v>0.41370642707668592</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>2.661433983964713E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,8 +890,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1461,13 +1550,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1812,37 +1901,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
-  <dimension ref="B1:J34"/>
+  <dimension ref="B1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="5" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="10" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="5" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="8" max="10" width="19.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.19921875" customWidth="1"/>
+    <col min="13" max="15" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -1857,8 +1954,14 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1871,8 +1974,14 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1885,8 +1994,14 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1899,8 +2014,14 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -1915,12 +2036,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>500080</v>
+        <f>500080+557700</f>
+        <v>1057780</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>69979</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -1933,8 +2063,14 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1947,8 +2083,14 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -1961,8 +2103,14 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1975,8 +2123,14 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
@@ -1989,8 +2143,14 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2003,8 +2163,14 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -2017,8 +2183,14 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2031,8 +2203,14 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
@@ -2050,42 +2228,59 @@
       </c>
       <c r="H16" s="2">
         <f>SUM(H4:H15)</f>
-        <v>500080</v>
+        <v>1057780</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <f>SUM(M4:M15)</f>
+        <v>69979</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <v>507615</v>
+        <v>507400</v>
       </c>
       <c r="D17" s="2">
-        <v>954544</v>
+        <v>956361</v>
       </c>
       <c r="E17" s="8"/>
       <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="2">
-        <v>519540</v>
+        <v>1081990</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="2">
+        <v>69606</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="13">
         <f>(C17/C16)-1</f>
-        <v>1.6795865633074891E-2</v>
+        <v>1.6365202411714019E-2</v>
       </c>
       <c r="D18" s="13">
         <f>(D17/D16)-1</f>
-        <v>-8.8445648840418389E-4</v>
+        <v>1.0173866351821381E-3</v>
       </c>
       <c r="E18" s="14"/>
       <c r="G18" s="7" t="s">
@@ -2093,167 +2288,254 @@
       </c>
       <c r="H18" s="11">
         <f>(H17/H16)-1</f>
-        <v>3.8913773796192652E-2</v>
+        <v>2.2887556958913979E-2</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="11">
+        <f>(M17/M16)-1</f>
+        <v>-5.3301704797152905E-3</v>
+      </c>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="35">
         <f>SUM(C16:E16)</f>
         <v>1454619</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
       <c r="G19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="33">
         <f>SUM(H16:J16)</f>
-        <v>500080</v>
-      </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1057780</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="L19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="33">
+        <f>SUM(M16:O16)</f>
+        <v>69979</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="38">
         <f>SUM(C17:E17)</f>
-        <v>1462159</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+        <v>1463761</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
       <c r="G20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="31">
         <f>SUM(H17:J17)</f>
-        <v>519540</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1081990</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="L20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="31">
+        <f>SUM(M17:O17)</f>
+        <v>69606</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="38">
         <f>C20-C19</f>
-        <v>7540</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
+        <v>9142</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
       <c r="G21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="28">
         <f>H20-H19</f>
-        <v>19460</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-    </row>
-    <row r="22" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24210</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="L21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="28">
+        <f>M20-M19</f>
+        <v>-373</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="20">
         <f>(C20/C19)-1</f>
-        <v>5.1834879098926478E-3</v>
-      </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+        <v>6.2848072244348074E-3</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
       <c r="G22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="22">
         <f>(H20/H19)-1</f>
-        <v>3.8913773796192652E-2</v>
-      </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="25" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+        <v>2.2887556958913979E-2</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="L22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" s="22">
+        <f>(M20/M19)-1</f>
+        <v>-5.3301704797152905E-3</v>
+      </c>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="25" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="16">
-        <f>SUM(C19,H19)</f>
-        <v>1954699</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+        <f>SUM(C19,H19,M19)</f>
+        <v>2582378</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="8">
-        <f>SUM(C20,H20)</f>
-        <v>1981699</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <f>SUM(C20,H20,M20)</f>
+        <v>2615357</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="8">
         <f>C27-C26</f>
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+        <v>32979</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="3">
         <f>(C27/C26)-1</f>
-        <v>1.3812868375130849E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+        <v>1.2770787235640846E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="3">
         <f>(C20/C27)</f>
-        <v>0.73783102277389245</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20" t="s">
+        <v>0.55967923308366696</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="3">
         <f>(H20/C27)</f>
-        <v>0.26216897722610749</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="3" t="e">
-        <f>(C33/C32)-1</f>
-        <v>#DIV/0!</v>
+        <v>0.41370642707668592</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19">
+        <f>(M20/C27)</f>
+        <v>2.661433983964713E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AA4E5-B066-4C83-B89C-6666514209D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC0430-C7C8-4616-A120-381194CB4519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>4월</t>
   </si>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIGER 미국배당존스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KODEX 미국나스닥100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,15 +172,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>채권+금+달러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>고위험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국배당다우존스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 미국배당다우존스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,8 +198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -237,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -410,19 +414,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -499,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,10 +509,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -536,16 +527,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -560,67 +548,67 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,6 +759,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1488-4AD7-809C-795AEFCA8E77}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -794,7 +787,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -869,13 +862,13 @@
                 <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.55967923308366696</c:v>
+                  <c:v>0.58374419738278338</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00%">
-                  <c:v>0.41370642707668592</c:v>
+                  <c:v>0.39163727784550062</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>2.661433983964713E-2</c:v>
+                  <c:v>2.4618524771716038E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,7 +917,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1903,60 +1896,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
   <dimension ref="B1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="5" width="19.59765625" customWidth="1"/>
+    <col min="3" max="5" width="22.69921875" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" customWidth="1"/>
-    <col min="8" max="10" width="19.59765625" customWidth="1"/>
+    <col min="8" max="10" width="22.69921875" customWidth="1"/>
     <col min="12" max="12" width="16.19921875" customWidth="1"/>
-    <col min="13" max="15" width="19.59765625" customWidth="1"/>
+    <col min="13" max="15" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="L2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="L2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="5"/>
       <c r="L3" s="4"/>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="5"/>
@@ -2031,7 +2026,9 @@
       <c r="D7" s="2">
         <v>955389</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="8">
+        <v>142100</v>
+      </c>
       <c r="G7" s="6" t="s">
         <v>0</v>
       </c>
@@ -2212,7 +2209,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <f>SUM(C4:C15)</f>
@@ -2222,9 +2219,12 @@
         <f>SUM(D4:D15)</f>
         <v>955389</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="8">
+        <f>SUM(E4:E15)</f>
+        <v>142100</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(H4:H15)</f>
@@ -2233,7 +2233,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="8"/>
       <c r="L16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="2">
         <f>SUM(M4:M15)</f>
@@ -2244,28 +2244,30 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>507400</v>
+        <v>508260</v>
       </c>
       <c r="D17" s="2">
-        <v>956361</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>961366</v>
+      </c>
+      <c r="E17" s="8">
+        <v>142240</v>
+      </c>
       <c r="G17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="2">
-        <v>1081990</v>
+        <v>1081410</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="8"/>
       <c r="L17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2">
-        <v>69606</v>
+        <v>67978</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="8"/>
@@ -2276,19 +2278,22 @@
       </c>
       <c r="C18" s="13">
         <f>(C17/C16)-1</f>
-        <v>1.6365202411714019E-2</v>
+        <v>1.8087855297157729E-2</v>
       </c>
       <c r="D18" s="13">
         <f>(D17/D16)-1</f>
-        <v>1.0173866351821381E-3</v>
-      </c>
-      <c r="E18" s="14"/>
+        <v>6.2560904511146376E-3</v>
+      </c>
+      <c r="E18" s="13">
+        <f>(E17/E16)-1</f>
+        <v>9.852216748769127E-4</v>
+      </c>
       <c r="G18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="11">
         <f>(H17/H16)-1</f>
-        <v>2.2887556958913979E-2</v>
+        <v>2.2339238783111837E-2</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="10"/>
@@ -2297,226 +2302,238 @@
       </c>
       <c r="M18" s="11">
         <f>(M17/M16)-1</f>
-        <v>-5.3301704797152905E-3</v>
+        <v>-2.8594292573486335E-2</v>
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="35">
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="28">
         <f>SUM(C16:E16)</f>
-        <v>1454619</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="G19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="33">
+        <v>1596719</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="34">
         <f>SUM(H16:J16)</f>
         <v>1057780</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="L19" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="33">
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="L19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="34">
         <f>SUM(M16:O16)</f>
         <v>69979</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="38">
+        <v>22</v>
+      </c>
+      <c r="C20" s="31">
         <f>SUM(C17:E17)</f>
-        <v>1463761</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
+        <v>1611866</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
       <c r="G20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="31">
+        <v>25</v>
+      </c>
+      <c r="H20" s="36">
         <f>SUM(H17:J17)</f>
-        <v>1081990</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
+        <v>1081410</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
       <c r="L20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="31">
+        <v>33</v>
+      </c>
+      <c r="M20" s="36">
         <f>SUM(M17:O17)</f>
-        <v>69606</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
+        <v>67978</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="31">
+        <f>C20-C19</f>
+        <v>15147</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="38">
-        <f>C20-C19</f>
-        <v>9142</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="G21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="28">
+      <c r="H21" s="20">
         <f>H20-H19</f>
-        <v>24210</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+        <v>23630</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
       <c r="L21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="28">
+        <v>34</v>
+      </c>
+      <c r="M21" s="20">
         <f>M20-M19</f>
-        <v>-373</v>
-      </c>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
+        <v>-2001</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="20">
+        <v>23</v>
+      </c>
+      <c r="C22" s="38">
         <f>(C20/C19)-1</f>
-        <v>6.2848072244348074E-3</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+        <v>9.486327901152336E-3</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="22">
+        <v>26</v>
+      </c>
+      <c r="H22" s="23">
         <f>(H20/H19)-1</f>
-        <v>2.2887556958913979E-2</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+        <v>2.2339238783111837E-2</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="L22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M22" s="22">
+        <v>35</v>
+      </c>
+      <c r="M22" s="23">
         <f>(M20/M19)-1</f>
-        <v>-5.3301704797152905E-3</v>
-      </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
+        <v>-2.8594292573486335E-2</v>
+      </c>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="25" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="15">
+        <f>SUM(C19,H19,M19)</f>
+        <v>2724478</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B27" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="C26" s="16">
-        <f>SUM(C19,H19,M19)</f>
-        <v>2582378</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C27" s="8">
         <f>SUM(C20,H20,M20)</f>
-        <v>2615357</v>
+        <v>2761254</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="18" t="s">
-        <v>30</v>
+      <c r="B28" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="8">
         <f>C27-C26</f>
-        <v>32979</v>
+        <v>36776</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="18" t="s">
-        <v>17</v>
+      <c r="B29" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="3">
         <f>(C27/C26)-1</f>
-        <v>1.2770787235640846E-2</v>
+        <v>1.3498365558466618E-2</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="3">
         <f>(C20/C27)</f>
-        <v>0.55967923308366696</v>
+        <v>0.58374419738278338</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="3">
         <f>(H20/C27)</f>
-        <v>0.41370642707668592</v>
+        <v>0.39163727784550062</v>
       </c>
     </row>
     <row r="32" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="19">
+      <c r="B32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="18">
         <f>(M20/C27)</f>
-        <v>2.661433983964713E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+        <v>2.4618524771716038E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>14</v>
       </c>
       <c r="C38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>15</v>
+      </c>
+      <c r="D40">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BC0430-C7C8-4616-A120-381194CB4519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3316A2-CA84-41C1-8895-B77D9E3F5BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년" sheetId="1" r:id="rId1"/>
@@ -35,51 +35,35 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
-  <si>
-    <t>4월</t>
-  </si>
-  <si>
-    <t>5월</t>
-  </si>
-  <si>
-    <t>6월</t>
-  </si>
-  <si>
-    <t>7월</t>
-  </si>
-  <si>
-    <t>8월</t>
-  </si>
-  <si>
-    <t>9월</t>
-  </si>
-  <si>
-    <t>10월</t>
-  </si>
-  <si>
-    <t>11월</t>
-  </si>
-  <si>
-    <t>12월</t>
-  </si>
-  <si>
-    <t>3월</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>SCHD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수익률</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채권+금+달러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고위험</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +169,30 @@
   </si>
   <si>
     <t>목표 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE 미국 WideMoat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 미국S&amp;P500배당귀족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE 미국배당퀄리티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -484,13 +488,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -609,6 +626,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -829,11 +852,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$B$26:$B$32</c15:sqref>
+                    <c15:sqref>'2025년'!$B$14:$B$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$B$30:$B$32</c:f>
+              <c:f>'2025년'!$B$18:$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -853,22 +876,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$C$26:$C$32</c15:sqref>
+                    <c15:sqref>'2025년'!$C$14:$C$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$C$30:$C$32</c:f>
+              <c:f>'2025년'!$C$18:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.58374419738278338</c:v>
+                  <c:v>0.43931607294964609</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00%">
-                  <c:v>0.39163727784550062</c:v>
+                  <c:v>0.53709196792322089</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>2.4618524771716038E-2</c:v>
+                  <c:v>2.359195912713298E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,16 +1563,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1894,665 +1917,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
-  <dimension ref="B1:O40"/>
+  <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="5" width="22.69921875" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
-    <col min="8" max="10" width="22.69921875" customWidth="1"/>
-    <col min="12" max="12" width="16.19921875" customWidth="1"/>
-    <col min="13" max="15" width="22.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="7" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="12" width="24.625" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="17" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" ht="25.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="27"/>
-      <c r="L2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="27"/>
+      <c r="I2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
+      <c r="N2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>499230</v>
+      </c>
+      <c r="D4" s="2">
+        <v>955389</v>
+      </c>
+      <c r="E4" s="8">
+        <v>142100</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1842280</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="8"/>
+      <c r="N4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="2">
+        <v>69979</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>489340</v>
+      </c>
+      <c r="D5" s="2">
+        <v>922439</v>
+      </c>
+      <c r="E5" s="8">
+        <v>136500</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1892870</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <v>83145</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <f>(C5/C4)-1</f>
+        <v>-1.9810508182601216E-2</v>
+      </c>
+      <c r="D6" s="13">
+        <f>(D5/D4)-1</f>
+        <v>-3.4488569577418193E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <f>(E5/E4)-1</f>
+        <v>-3.9408866995073843E-2</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="I6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <f>(J5/J4)-1</f>
+        <v>2.7460538028964088E-2</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="N6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11">
+        <f>(O5/O4)-1</f>
+        <v>0.18814215693279412</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="28">
+        <f>SUM(C4:G4)</f>
+        <v>1596719</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="I7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="34">
+        <f>SUM(J4:L4)</f>
+        <v>1842280</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+      <c r="N7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="34">
+        <f>SUM(O4:Q4)</f>
+        <v>69979</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
+      <c r="C8" s="31">
+        <f>SUM(C5:G5)</f>
+        <v>1548279</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="36">
+        <f>SUM(J5:L5)</f>
+        <v>1892870</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="N8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="36">
+        <f>SUM(O5:Q5)</f>
+        <v>83145</v>
+      </c>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="5"/>
+      <c r="C9" s="31">
+        <f>C8-C7</f>
+        <v>-48440</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="20">
+        <f>J8-J7</f>
+        <v>50590</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="20">
+        <f>O8-O7</f>
+        <v>13166</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+    <row r="10" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="8"/>
-      <c r="G4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="8"/>
-      <c r="L4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="8"/>
+      <c r="C10" s="38">
+        <f>(C8/C7)-1</f>
+        <v>-3.0337210241751955E-2</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="39"/>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="23">
+        <f>(J8/J7)-1</f>
+        <v>2.7460538028964088E-2</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="N10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="23">
+        <f>(O8/O7)-1</f>
+        <v>0.18814215693279412</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="L5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="8"/>
+    <row r="13" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="15">
+        <f>SUM(C7,J7,O7)</f>
+        <v>3508978</v>
+      </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8"/>
-      <c r="L6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="8"/>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C8,J8,O8)</f>
+        <v>3524294</v>
+      </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <f>C15-C14</f>
+        <v>15316</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <f>(C15/C14)-1</f>
+        <v>4.3648036550814062E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>499230</v>
-      </c>
-      <c r="D7" s="2">
-        <v>955389</v>
-      </c>
-      <c r="E7" s="8">
-        <v>142100</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="C18" s="3">
+        <f>(C8/C15)</f>
+        <v>0.43931607294964609</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(J8/C15)</f>
+        <v>0.53709196792322089</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="18">
+        <f>(O8/C15)</f>
+        <v>2.359195912713298E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">+B:G</f>
         <v>0</v>
       </c>
-      <c r="H7" s="2">
-        <f>500080+557700</f>
-        <v>1057780</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="8"/>
-      <c r="L7" s="6" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>69979</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="8"/>
+      <c r="C25">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="8"/>
-      <c r="L8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="8"/>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="G9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="8"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="8"/>
-      <c r="G10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
-      <c r="L10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="8"/>
-      <c r="G11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="L11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="8"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="8"/>
-      <c r="G13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="8"/>
-      <c r="L13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="8"/>
-      <c r="L14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="8"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="8"/>
-      <c r="L15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUM(C4:C15)</f>
-        <v>499230</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(D4:D15)</f>
-        <v>955389</v>
-      </c>
-      <c r="E16" s="8">
-        <f>SUM(E4:E15)</f>
-        <v>142100</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2">
-        <f>SUM(H4:H15)</f>
-        <v>1057780</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="L16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="2">
-        <f>SUM(M4:M15)</f>
-        <v>69979</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>508260</v>
-      </c>
-      <c r="D17" s="2">
-        <v>961366</v>
-      </c>
-      <c r="E17" s="8">
-        <v>142240</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2">
-        <v>1081410</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2">
-        <v>67978</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="13">
-        <f>(C17/C16)-1</f>
-        <v>1.8087855297157729E-2</v>
-      </c>
-      <c r="D18" s="13">
-        <f>(D17/D16)-1</f>
-        <v>6.2560904511146376E-3</v>
-      </c>
-      <c r="E18" s="13">
-        <f>(E17/E16)-1</f>
-        <v>9.852216748769127E-4</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="11">
-        <f>(H17/H16)-1</f>
-        <v>2.2339238783111837E-2</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="L18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18" s="11">
-        <f>(M17/M16)-1</f>
-        <v>-2.8594292573486335E-2</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="28">
-        <f>SUM(C16:E16)</f>
-        <v>1596719</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="G19" s="14" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="34">
-        <f>SUM(H16:J16)</f>
-        <v>1057780</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="L19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="34">
-        <f>SUM(M16:O16)</f>
-        <v>69979</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="35"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="31">
-        <f>SUM(C17:E17)</f>
-        <v>1611866</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="36">
-        <f>SUM(H17:J17)</f>
-        <v>1081410</v>
-      </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="L20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="36">
-        <f>SUM(M17:O17)</f>
-        <v>67978</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="31">
-        <f>C20-C19</f>
-        <v>15147</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="20">
-        <f>H20-H19</f>
-        <v>23630</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="L21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M21" s="20">
-        <f>M20-M19</f>
-        <v>-2001</v>
-      </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="38">
-        <f>(C20/C19)-1</f>
-        <v>9.486327901152336E-3</v>
-      </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="G22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="23">
-        <f>(H20/H19)-1</f>
-        <v>2.2339238783111837E-2</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="L22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="23">
-        <f>(M20/M19)-1</f>
-        <v>-2.8594292573486335E-2</v>
-      </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-    </row>
-    <row r="25" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="15">
-        <f>SUM(C19,H19,M19)</f>
-        <v>2724478</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8">
-        <f>SUM(C20,H20,M20)</f>
-        <v>2761254</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="8">
-        <f>C27-C26</f>
-        <v>36776</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B29" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3">
-        <f>(C27/C26)-1</f>
-        <v>1.3498365558466618E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B30" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3">
-        <f>(C20/C27)</f>
-        <v>0.58374419738278338</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B31" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3">
-        <f>(H20/C27)</f>
-        <v>0.39163727784550062</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="18">
-        <f>(M20/C27)</f>
-        <v>2.4618524771716038E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>40</v>
-      </c>
-      <c r="D37">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39">
+      <c r="C28">
         <v>15</v>
-      </c>
-      <c r="D39">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>15</v>
-      </c>
-      <c r="D40">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Investment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3316A2-CA84-41C1-8895-B77D9E3F5BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63B4FD-6BD7-4B3B-91E0-C030493F99B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025년" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>SCHD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QQQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KODEX 미국나스닥100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,38 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SCHD 매수금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHD 평가금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHD 수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ 매수금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ 평가금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ 수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHD 평가 손익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQQ 평가손익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>총 평가 손익</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,15 +148,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TIGER 미국S&amp;P500배당귀족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ACE 미국배당퀄리티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 매수 단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당 매수금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당 평가금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당 평가 손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배당 수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주 매수금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주 평가금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주 평가손익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주 수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주 ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,10 +208,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -245,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -501,13 +510,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,9 +569,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -589,6 +608,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,14 +647,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,18 +883,18 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$B$14:$B$20</c15:sqref>
+                    <c15:sqref>'2025년'!$B$16:$B$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$B$18:$B$20</c:f>
+              <c:f>'2025년'!$B$20:$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>SCHD</c:v>
+                  <c:v>배당</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>QQQ</c:v>
+                  <c:v>기술주</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>레버리지</c:v>
@@ -876,22 +907,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$C$14:$C$20</c15:sqref>
+                    <c15:sqref>'2025년'!$C$16:$C$22</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$C$18:$C$20</c:f>
+              <c:f>'2025년'!$C$20:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.43931607294964609</c:v>
+                  <c:v>0.34481819363753941</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00%">
-                  <c:v>0.53709196792322089</c:v>
+                  <c:v>0.54237638925575749</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>2.359195912713298E-2</c:v>
+                  <c:v>0.11280541710670305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,13 +1596,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1917,81 +1948,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="7" width="24.625" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="12" width="24.625" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="17" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="7" width="24.59765625" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="10" max="12" width="24.59765625" customWidth="1"/>
+    <col min="14" max="14" width="16.19921875" customWidth="1"/>
+    <col min="15" max="17" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="27"/>
-      <c r="I2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="27"/>
-      <c r="N2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="N2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="27"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5"/>
       <c r="N3" s="4"/>
       <c r="O3" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>499230</v>
@@ -1999,345 +2030,428 @@
       <c r="D4" s="2">
         <v>955389</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="2">
         <v>142100</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="2">
+        <v>478800</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="I4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="2">
-        <v>1842280</v>
+        <v>3124755</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="8"/>
       <c r="N4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="2">
-        <v>69979</v>
+        <f>69979+565596</f>
+        <v>635575</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>489340</v>
+        <v>503745</v>
       </c>
       <c r="D5" s="2">
-        <v>922439</v>
-      </c>
-      <c r="E5" s="8">
-        <v>136500</v>
-      </c>
-      <c r="F5" s="8"/>
+        <v>955438</v>
+      </c>
+      <c r="E5" s="2">
+        <v>140910</v>
+      </c>
+      <c r="F5" s="2">
+        <v>492480</v>
+      </c>
       <c r="G5" s="8"/>
       <c r="I5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>1892870</v>
+        <v>3291480</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="8"/>
       <c r="N5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="2">
-        <v>83145</v>
+        <f>119236+565338</f>
+        <v>684574</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="43">
+        <v>43</v>
+      </c>
+      <c r="D6" s="43">
+        <v>26</v>
+      </c>
+      <c r="E6" s="43">
+        <v>14</v>
+      </c>
+      <c r="F6" s="43">
+        <v>48</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="I6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="43">
+        <v>164</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="44"/>
+      <c r="N6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="43">
+        <v>23</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="41">
+        <f>C4/C6</f>
+        <v>11610</v>
+      </c>
+      <c r="D7" s="41">
+        <f>D4/D6</f>
+        <v>36745.730769230766</v>
+      </c>
+      <c r="E7" s="41">
+        <f>E4/E6</f>
+        <v>10150</v>
+      </c>
+      <c r="F7" s="41">
+        <f>F4/F6</f>
+        <v>9975</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="I7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="41">
+        <f>J4/J6</f>
+        <v>19053.384146341465</v>
+      </c>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="N7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="41">
+        <f>O4/O6</f>
+        <v>27633.695652173912</v>
+      </c>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="42"/>
+    </row>
+    <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C8" s="11">
         <f>(C5/C4)-1</f>
-        <v>-1.9810508182601216E-2</v>
-      </c>
-      <c r="D6" s="13">
+        <v>9.0439276485787534E-3</v>
+      </c>
+      <c r="D8" s="11">
         <f>(D5/D4)-1</f>
-        <v>-3.4488569577418193E-2</v>
-      </c>
-      <c r="E6" s="13">
+        <v>5.1288009386807332E-5</v>
+      </c>
+      <c r="E8" s="11">
         <f>(E5/E4)-1</f>
-        <v>-3.9408866995073843E-2</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="I6" s="7" t="s">
+        <v>-8.3743842364532028E-3</v>
+      </c>
+      <c r="F8" s="11">
+        <f>(F5/F4)-1</f>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="I8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J8" s="11">
         <f>(J5/J4)-1</f>
-        <v>2.7460538028964088E-2</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="N6" s="7" t="s">
+        <v>5.3356183124756873E-2</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O8" s="11">
         <f>(O5/O4)-1</f>
-        <v>0.18814215693279412</v>
-      </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
+        <v>7.709397002714069E-2</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="10"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="28">
+        <f>SUM(C4:G4)</f>
+        <v>2075519</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="I9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="34">
+        <f>SUM(J4:L4)</f>
+        <v>3124755</v>
+      </c>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+      <c r="N9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="34">
+        <f>SUM(O4:Q4)</f>
+        <v>635575</v>
+      </c>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="31">
+        <f>SUM(C5:G5)</f>
+        <v>2092573</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="I10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="36">
+        <f>SUM(J5:L5)</f>
+        <v>3291480</v>
+      </c>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="N10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="36">
+        <f>SUM(O5:Q5)</f>
+        <v>684574</v>
+      </c>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="31">
+        <f>C10-C9</f>
+        <v>17054</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="I11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="19">
+        <f>J10-J9</f>
+        <v>166725</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="N11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="19">
+        <f>O10-O9</f>
+        <v>48999</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="38">
+        <f>(C10/C9)-1</f>
+        <v>8.2167400057526763E-3</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="I12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="22">
+        <f>(J10/J9)-1</f>
+        <v>5.3356183124756873E-2</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="N12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="22">
+        <f>(O10/O9)-1</f>
+        <v>7.709397002714069E-2</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="14">
+        <f>SUM(C9,J9,O9)</f>
+        <v>5835849</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <f>SUM(C10,J10,O10)</f>
+        <v>6068627</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C17-C16</f>
+        <v>232778</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(C17/C16)-1</f>
+        <v>3.9887598188369955E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <f>(C10/C17)</f>
+        <v>0.34481819363753941</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3">
+        <f>(J10/C17)</f>
+        <v>0.54237638925575749</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28">
-        <f>SUM(C4:G4)</f>
-        <v>1596719</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="I7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="34">
-        <f>SUM(J4:L4)</f>
-        <v>1842280</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="N7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="34">
-        <f>SUM(O4:Q4)</f>
-        <v>69979</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
+      <c r="C22" s="17">
+        <f>(O10/C17)</f>
+        <v>0.11280541710670305</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="31">
-        <f>SUM(C5:G5)</f>
-        <v>1548279</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="I8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="36">
-        <f>SUM(J5:L5)</f>
-        <v>1892870</v>
-      </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="N8" s="6" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D24" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">+B:G</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="36">
-        <f>SUM(O5:Q5)</f>
-        <v>83145</v>
-      </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="37"/>
+      <c r="C27">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="C9" s="31">
-        <f>C8-C7</f>
-        <v>-48440</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="I9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="20">
-        <f>J8-J7</f>
-        <v>50590</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="20">
-        <f>O8-O7</f>
-        <v>13166</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
     </row>
-    <row r="10" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="38">
-        <f>(C8/C7)-1</f>
-        <v>-3.0337210241751955E-2</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="39"/>
-      <c r="I10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="23">
-        <f>(J8/J7)-1</f>
-        <v>2.7460538028964088E-2</v>
-      </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="N10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="23">
-        <f>(O8/O7)-1</f>
-        <v>0.18814215693279412</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="13" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="15">
-        <f>SUM(C7,J7,O7)</f>
-        <v>3508978</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
-        <f>SUM(C8,J8,O8)</f>
-        <v>3524294</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8">
-        <f>C15-C14</f>
-        <v>15316</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <f>(C15/C14)-1</f>
-        <v>4.3648036550814062E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <f>(C8/C15)</f>
-        <v>0.43931607294964609</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
-        <f>(J8/C15)</f>
-        <v>0.53709196792322089</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="18">
-        <f>(O8/C15)</f>
-        <v>2.359195912713298E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">+B:G</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
+      <c r="C30">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63B4FD-6BD7-4B3B-91E0-C030493F99B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859697A-48B9-46E4-9999-B38EFA52DFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>SCHD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,34 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레버리지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOXL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레버리지 매수금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레버리지 평가금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레버리지 평가손익</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레버리지 수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고위험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KODEX 미국배당다우존스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,18 +90,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACE 미국 WideMoat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIGER 미국S&amp;P500배당귀족</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACE 미국배당퀄리티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +143,70 @@
   </si>
   <si>
     <t>기술주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국배당다우존스타켓커버드콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE 미국빅테크TOP7 PLUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔비디아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테슬라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에흐르 테스트 시스템즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러 환율:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 투자 금액:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,11 +214,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -240,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +260,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -523,13 +536,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,12 +662,6 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -572,9 +671,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -587,19 +683,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,18 +731,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -653,17 +740,119 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,11 +1072,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$B$16:$B$22</c15:sqref>
+                    <c15:sqref>'2025년'!$L$2:$L$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$B$20:$B$22</c:f>
+              <c:f>'2025년'!$L$6:$L$8</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -897,7 +1086,7 @@
                   <c:v>기술주</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>레버리지</c:v>
+                  <c:v>단일주</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -907,22 +1096,22 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$C$16:$C$22</c15:sqref>
+                    <c15:sqref>'2025년'!$M$2:$M$8</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$C$20:$C$22</c:f>
+              <c:f>'2025년'!$M$6:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>"₩"#,##0_);[Red]\("₩"#,##0\)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.34481819363753941</c:v>
+                  <c:v>0.20914902028566784</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00%">
-                  <c:v>0.54237638925575749</c:v>
+                  <c:v>0.61437089228927277</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.11280541710670305</c:v>
+                  <c:v>0.17648008742505938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,16 +1783,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>195261</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33704</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142142</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155084</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1948,79 +2137,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
-  <dimension ref="B1:Q30"/>
+  <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="7" width="24.59765625" customWidth="1"/>
+    <col min="3" max="5" width="24.59765625" customWidth="1"/>
+    <col min="6" max="6" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
     <col min="9" max="9" width="16.19921875" customWidth="1"/>
     <col min="10" max="12" width="24.59765625" customWidth="1"/>
-    <col min="14" max="14" width="16.19921875" customWidth="1"/>
-    <col min="15" max="17" width="24.59765625" customWidth="1"/>
+    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.8984375" customWidth="1"/>
+    <col min="15" max="15" width="9.09765625" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" customWidth="1"/>
+    <col min="17" max="17" width="6.3984375" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="I2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="27"/>
-      <c r="N2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="27"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:22" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="16">
+        <f>SUM(C9,C21,C33)</f>
+        <v>8031322</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="65"/>
+      <c r="R2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="36"/>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="67">
+        <f>SUM(M3+S5)</f>
+        <v>10122218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="17">
+        <f>SUM(C10,C22,C34)</f>
+        <v>8539428</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="5">
+        <v>30</v>
+      </c>
+      <c r="R3" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="70">
+        <v>871.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2034,428 +2251,665 @@
         <v>142100</v>
       </c>
       <c r="F4" s="2">
-        <v>478800</v>
+        <v>181200</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3124755</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="8"/>
-      <c r="N4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2">
-        <f>69979+565596</f>
-        <v>635575</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="8">
+        <f>M3-M2</f>
+        <v>508106</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="5">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="17">
+        <v>373148</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>503745</v>
+        <v>507615</v>
       </c>
       <c r="D5" s="2">
         <v>955438</v>
       </c>
       <c r="E5" s="2">
-        <v>140910</v>
+        <v>141960</v>
       </c>
       <c r="F5" s="2">
-        <v>492480</v>
+        <v>181000</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3291480</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="8"/>
-      <c r="N5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2">
-        <f>119236+565338</f>
-        <v>684574</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="43">
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3">
+        <f>(M3/M2)-1</f>
+        <v>6.3265549557096623E-2</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="71">
+        <f>SUM(S3*M34+S4)</f>
+        <v>1582790</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20">
         <v>43</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="20">
         <v>26</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="20">
         <v>14</v>
       </c>
-      <c r="F6" s="43">
-        <v>48</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="43">
-        <v>164</v>
-      </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="N6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="43">
-        <v>23</v>
-      </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="44"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="F6" s="20">
+        <v>20</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(C10/M3)</f>
+        <v>0.20914902028566784</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="42"/>
+    </row>
+    <row r="7" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18">
         <f>C4/C6</f>
         <v>11610</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="18">
         <f>D4/D6</f>
         <v>36745.730769230766</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="18">
         <f>E4/E6</f>
         <v>10150</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="18">
         <f>F4/F6</f>
-        <v>9975</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="I7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="41">
-        <f>J4/J6</f>
-        <v>19053.384146341465</v>
-      </c>
+        <v>9060</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
       <c r="K7" s="41"/>
-      <c r="L7" s="42"/>
-      <c r="N7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="41">
-        <f>O4/O6</f>
-        <v>27633.695652173912</v>
-      </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="42"/>
-    </row>
-    <row r="8" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="3">
+        <f>(C22/M3)</f>
+        <v>0.61437089228927277</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="66">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="41"/>
+    </row>
+    <row r="8" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f>(C5/C4)-1</f>
-        <v>9.0439276485787534E-3</v>
-      </c>
-      <c r="D8" s="11">
+        <v>1.6795865633074891E-2</v>
+      </c>
+      <c r="D8" s="9">
         <f>(D5/D4)-1</f>
         <v>5.1288009386807332E-5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <f>(E5/E4)-1</f>
-        <v>-8.3743842364532028E-3</v>
-      </c>
-      <c r="F8" s="11">
+        <v>-9.8522167487680168E-4</v>
+      </c>
+      <c r="F8" s="9">
         <f>(F5/F4)-1</f>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="I8" s="7" t="s">
+        <v>-1.1037527593819041E-3</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="14">
+        <f>(C34/M3)</f>
+        <v>0.17648008742505938</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="26">
+        <f>SUM(C4:G4)</f>
+        <v>1777919</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="29">
+        <f>SUM(C5:G5)</f>
+        <v>1786013</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="29">
+        <f>C10-C9</f>
+        <v>8094</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+    </row>
+    <row r="12" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="32">
+        <f>(C10/C9)-1</f>
+        <v>4.5525133597199563E-3</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+    </row>
+    <row r="13" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:22" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3341000</v>
+      </c>
+      <c r="D16" s="2">
+        <v>478800</v>
+      </c>
+      <c r="E16" s="2">
+        <v>96575</v>
+      </c>
+      <c r="F16" s="51">
+        <v>821272</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3756660</v>
+      </c>
+      <c r="D17" s="2">
+        <v>518640</v>
+      </c>
+      <c r="E17" s="2">
+        <v>96400</v>
+      </c>
+      <c r="F17" s="51">
+        <v>874676</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20">
+        <v>174</v>
+      </c>
+      <c r="D18" s="20">
+        <v>48</v>
+      </c>
+      <c r="E18" s="20">
+        <v>5</v>
+      </c>
+      <c r="F18" s="52">
         <v>1</v>
       </c>
-      <c r="J8" s="11">
-        <f>(J5/J4)-1</f>
-        <v>5.3356183124756873E-2</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="N8" s="7" t="s">
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="18">
+        <f>C16/C18</f>
+        <v>19201.149425287356</v>
+      </c>
+      <c r="D19" s="18">
+        <f>D16/D18</f>
+        <v>9975</v>
+      </c>
+      <c r="E19" s="18">
+        <f>E16/E18</f>
+        <v>19315</v>
+      </c>
+      <c r="F19" s="53">
+        <f>F16/F18</f>
+        <v>821272</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="11">
-        <f>(O5/O4)-1</f>
-        <v>7.709397002714069E-2</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="28">
-        <f>SUM(C4:G4)</f>
-        <v>2075519</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="I9" s="13" t="s">
+      <c r="C20" s="9">
+        <f>(C17/C16)-1</f>
+        <v>0.12441185273870103</v>
+      </c>
+      <c r="D20" s="9">
+        <f>(D17/D16)-1</f>
+        <v>8.3208020050125286E-2</v>
+      </c>
+      <c r="E20" s="9">
+        <f>(E17/E16)-1</f>
+        <v>-1.8120631633445905E-3</v>
+      </c>
+      <c r="F20" s="54">
+        <f>(F17/F16)-1</f>
+        <v>6.5025959730759197E-2</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="55">
+        <f>SUM(C16:G16)</f>
+        <v>4737647</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="58">
+        <f>SUM(C17:G17)</f>
+        <v>5246376</v>
+      </c>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="58">
+        <f>C22-C21</f>
+        <v>508729</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="61">
+        <f>(C22/C21)-1</f>
+        <v>0.10738009817953942</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+    </row>
+    <row r="25" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:7" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B26" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="34">
-        <f>SUM(J4:L4)</f>
-        <v>3124755</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="N9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="34">
-        <f>SUM(O4:Q4)</f>
-        <v>635575</v>
-      </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="31">
-        <f>SUM(C5:G5)</f>
-        <v>2092573</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="I10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="36">
-        <f>SUM(J5:L5)</f>
-        <v>3291480</v>
-      </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="N10" s="6" t="s">
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>424328</v>
+      </c>
+      <c r="D28" s="2">
+        <v>473346</v>
+      </c>
+      <c r="E28" s="2">
+        <v>324151</v>
+      </c>
+      <c r="F28" s="51">
+        <v>168514</v>
+      </c>
+      <c r="G28" s="8">
+        <v>125417</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>483303</v>
+      </c>
+      <c r="D29" s="2">
+        <v>425642</v>
+      </c>
+      <c r="E29" s="2">
+        <v>302857</v>
+      </c>
+      <c r="F29" s="51">
+        <v>157838</v>
+      </c>
+      <c r="G29" s="8">
+        <v>137399</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="20">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="52">
         <v>12</v>
       </c>
-      <c r="O10" s="36">
-        <f>SUM(O5:Q5)</f>
-        <v>684574</v>
-      </c>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="37"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="31">
-        <f>C10-C9</f>
-        <v>17054</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="I11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="19">
-        <f>J10-J9</f>
-        <v>166725</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="N11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="19">
-        <f>O10-O9</f>
-        <v>48999</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="38">
-        <f>(C10/C9)-1</f>
-        <v>8.2167400057526763E-3</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="I12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="22">
-        <f>(J10/J9)-1</f>
-        <v>5.3356183124756873E-2</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="N12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="22">
-        <f>(O10/O9)-1</f>
-        <v>7.709397002714069E-2</v>
-      </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="15" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
-        <f>SUM(C9,J9,O9)</f>
-        <v>5835849</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8">
-        <f>SUM(C10,J10,O10)</f>
-        <v>6068627</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8">
-        <f>C17-C16</f>
-        <v>232778</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <f>(C17/C16)-1</f>
-        <v>3.9887598188369955E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
+      <c r="G30" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="18">
+        <f>C28/C30</f>
+        <v>212164</v>
+      </c>
+      <c r="D31" s="18">
+        <f>D28/D30</f>
+        <v>473346</v>
+      </c>
+      <c r="E31" s="18">
+        <f>E28/E30</f>
+        <v>324151</v>
+      </c>
+      <c r="F31" s="53">
+        <f>F28/F30</f>
+        <v>14042.833333333334</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9">
+        <f>(C29/C28)-1</f>
+        <v>0.13898446484794791</v>
+      </c>
+      <c r="D32" s="9">
+        <f>(D29/D28)-1</f>
+        <v>-0.10078040165122337</v>
+      </c>
+      <c r="E32" s="9">
+        <f>(E29/E28)-1</f>
+        <v>-6.5691606689474935E-2</v>
+      </c>
+      <c r="F32" s="54">
+        <f>(F29/F28)-1</f>
+        <v>-6.335378662900415E-2</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
-        <f>(C10/C17)</f>
-        <v>0.34481819363753941</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3">
-        <f>(J10/C17)</f>
-        <v>0.54237638925575749</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="17">
-        <f>(O10/C17)</f>
-        <v>0.11280541710670305</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D24" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">+B:G</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
+      <c r="C33" s="55">
+        <f>SUM(C28:G28)</f>
+        <v>1515756</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="58">
+        <f>SUM(C29:G29)</f>
+        <v>1507039</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="L34" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="72">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="58">
+        <f>C34-C33</f>
+        <v>-8717</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="61">
+        <f>(C34/C33)-1</f>
+        <v>-5.7509256107183271E-3</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O12:Q12"/>
+  <mergeCells count="17">
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="B14:G14"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:L2"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C23:G25 D21:G21 D22:G22" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/심상범의 투자 일지.xlsx
+++ b/심상범의 투자 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sangbeom\Documents\Investment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859697A-48B9-46E4-9999-B38EFA52DFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBABDF99-835F-4668-B6FD-86C225E7B16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1C587367-3A51-48E3-8FD5-9E60EF93E66E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>SCHD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KODEX 미국배당다우존스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIGER 미국배당다우존스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목표 비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +199,42 @@
   </si>
   <si>
     <t>총 투자 금액:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나노 뉴클리어 에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>템퍼스AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOXL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이더리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국배당커버그콜액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE KRX금현물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이크론 테크놀로지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,12 +242,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="183" formatCode="0.00000_);[Red]\(0.00000\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -267,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -628,13 +657,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +743,108 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="26" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,119 +884,86 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="26" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,6 +1119,36 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
@@ -1072,13 +1213,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$L$2:$L$8</c15:sqref>
+                    <c15:sqref>'2025년'!$L$2:$L$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$L$6:$L$8</c:f>
+              <c:f>'2025년'!$L$6:$L$10</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>배당</c:v>
                 </c:pt>
@@ -1088,6 +1229,12 @@
                 <c:pt idx="2">
                   <c:v>단일주</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>금</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>코인</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -1096,22 +1243,28 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'2025년'!$M$2:$M$8</c15:sqref>
+                    <c15:sqref>'2025년'!$M$2:$M$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'2025년'!$M$6:$M$8</c:f>
+              <c:f>'2025년'!$M$6:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0_);[Red]\("₩"#,##0\)</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.20914902028566784</c:v>
+                  <c:v>0.13283655156067598</c:v>
                 </c:pt>
                 <c:pt idx="1" formatCode="0.00%">
-                  <c:v>0.61437089228927277</c:v>
+                  <c:v>0.50436812060987202</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.17648008742505938</c:v>
+                  <c:v>0.36279532782945206</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>2.0955212110606306E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00%">
+                  <c:v>6.0839227448226674E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,16 +1936,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>33704</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>48721</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1872664</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>150321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142142</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>155084</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2137,22 +2290,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3560C-3343-4AE5-82F6-2A10F2175E95}">
-  <dimension ref="B1:V36"/>
+  <dimension ref="B1:V60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="5" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="30.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.59765625" customWidth="1"/>
     <col min="6" max="6" width="35.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.19921875" customWidth="1"/>
     <col min="10" max="12" width="24.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.8984375" customWidth="1"/>
     <col min="15" max="15" width="9.09765625" customWidth="1"/>
     <col min="16" max="16" width="11.8984375" customWidth="1"/>
@@ -2165,76 +2320,75 @@
   <sheetData>
     <row r="1" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:22" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="B2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="L2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="16">
         <f>SUM(C9,C21,C33)</f>
-        <v>8031322</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="65"/>
-      <c r="R2" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="36"/>
+        <v>10619846</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="70"/>
+      <c r="R2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="43"/>
       <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="67">
+        <v>40</v>
+      </c>
+      <c r="V2" s="36">
         <f>SUM(M3+S5)</f>
-        <v>10122218</v>
+        <v>12003506.859999999</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B3" s="4"/>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="17">
         <f>SUM(C10,C22,C34)</f>
-        <v>8539428</v>
+        <v>11285975</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="5">
-        <v>30</v>
-      </c>
-      <c r="R3" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="70">
-        <v>871.5</v>
+        <v>11</v>
+      </c>
+      <c r="P3" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="39">
+        <f>163.17+40.29</f>
+        <v>203.45999999999998</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.4">
@@ -2242,40 +2396,38 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>499230</v>
+        <v>350250</v>
       </c>
       <c r="D4" s="2">
         <v>955389</v>
       </c>
-      <c r="E4" s="2">
-        <v>142100</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>181200</v>
       </c>
       <c r="G4" s="8"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="8">
         <f>M3-M2</f>
-        <v>508106</v>
+        <v>666129</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="5">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="P4" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="26"/>
       <c r="R4" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S4" s="17">
-        <v>373148</v>
+        <v>434519</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2283,116 +2435,109 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>507615</v>
+        <v>353400</v>
       </c>
       <c r="D5" s="2">
-        <v>955438</v>
-      </c>
-      <c r="E5" s="2">
-        <v>141960</v>
-      </c>
+        <v>964690</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>181000</v>
+        <v>181100</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="3">
         <f>(M3/M2)-1</f>
-        <v>6.3265549557096623E-2</v>
+        <v>6.2724920869850598E-2</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="P5" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="26"/>
       <c r="R5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="71">
-        <f>SUM(S3*M34+S4)</f>
-        <v>1582790</v>
+        <v>39</v>
+      </c>
+      <c r="S5" s="40">
+        <f>SUM(S3*S8+S4)</f>
+        <v>717531.86</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="20">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="20">
         <v>26</v>
       </c>
-      <c r="E6" s="20">
-        <v>14</v>
-      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="20">
         <v>20</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6" s="3">
         <f>(C10/M3)</f>
-        <v>0.20914902028566784</v>
+        <v>0.13283655156067598</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="42"/>
-    </row>
-    <row r="7" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="P6" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="18">
         <f>C4/C6</f>
-        <v>11610</v>
+        <v>11675</v>
       </c>
       <c r="D7" s="18">
         <f>D4/D6</f>
         <v>36745.730769230766</v>
       </c>
-      <c r="E7" s="18">
-        <f>E4/E6</f>
-        <v>10150</v>
-      </c>
+      <c r="E7" s="18"/>
       <c r="F7" s="18">
         <f>F4/F6</f>
         <v>9060</v>
       </c>
       <c r="G7" s="19"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M7" s="3">
         <f>(C22/M3)</f>
-        <v>0.61437089228927277</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="66">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="41"/>
+        <v>0.50436812060987202</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
@@ -2400,132 +2545,150 @@
       </c>
       <c r="C8" s="9">
         <f>(C5/C4)-1</f>
-        <v>1.6795865633074891E-2</v>
+        <v>8.9935760171306889E-3</v>
       </c>
       <c r="D8" s="9">
         <f>(D5/D4)-1</f>
-        <v>5.1288009386807332E-5</v>
-      </c>
-      <c r="E8" s="9">
-        <f>(E5/E4)-1</f>
-        <v>-9.8522167487680168E-4</v>
-      </c>
+        <v>9.7353015368608631E-3</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="9">
         <f>(F5/F4)-1</f>
-        <v>-1.1037527593819041E-3</v>
+        <v>-5.5187637969089653E-4</v>
       </c>
       <c r="G8" s="14"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="14">
+      <c r="I8" s="25"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="3">
         <f>(C34/M3)</f>
-        <v>0.17648008742505938</v>
-      </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
+        <v>0.36279532782945206</v>
+      </c>
+      <c r="O8" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="41">
+        <v>1391</v>
+      </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="26">
+        <v>15</v>
+      </c>
+      <c r="C9" s="60">
         <f>SUM(C4:G4)</f>
-        <v>1777919</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
+        <v>1486839</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3">
+        <f>(C46/M3)</f>
+        <v>2.0955212110606306E-2</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+    </row>
+    <row r="10" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="29">
+        <v>16</v>
+      </c>
+      <c r="C10" s="63">
         <f>SUM(C5:G5)</f>
-        <v>1786013</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
+        <v>1499190</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="14">
+        <f>(C58/M3)</f>
+        <v>6.0839227448226674E-3</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="29">
+        <v>17</v>
+      </c>
+      <c r="C11" s="63">
         <f>C10-C9</f>
-        <v>8094</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
+        <v>12351</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="32">
+        <v>18</v>
+      </c>
+      <c r="C12" s="66">
         <f>(C10/C9)-1</f>
-        <v>4.5525133597199563E-3</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
+        <v>8.3068846055289747E-3</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
     </row>
     <row r="13" spans="2:22" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="2:22" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B14" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="B14" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
@@ -2533,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -2548,43 +2711,43 @@
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>3341000</v>
+        <v>3467510</v>
       </c>
       <c r="D16" s="2">
         <v>478800</v>
       </c>
       <c r="E16" s="2">
-        <v>96575</v>
-      </c>
-      <c r="F16" s="51">
+        <v>377675</v>
+      </c>
+      <c r="F16" s="32">
         <v>821272</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2">
-        <v>3756660</v>
+        <v>3903300</v>
       </c>
       <c r="D17" s="2">
-        <v>518640</v>
+        <v>516960</v>
       </c>
       <c r="E17" s="2">
-        <v>96400</v>
-      </c>
-      <c r="F17" s="51">
-        <v>874676</v>
+        <v>389600</v>
+      </c>
+      <c r="F17" s="32">
+        <v>882426</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="20">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D18" s="20">
         <v>48</v>
@@ -2592,18 +2755,18 @@
       <c r="E18" s="20">
         <v>5</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="33">
         <v>1</v>
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="18">
         <f>C16/C18</f>
-        <v>19201.149425287356</v>
+        <v>19263.944444444445</v>
       </c>
       <c r="D19" s="18">
         <f>D16/D18</f>
@@ -2611,123 +2774,139 @@
       </c>
       <c r="E19" s="18">
         <f>E16/E18</f>
-        <v>19315</v>
-      </c>
-      <c r="F19" s="53">
+        <v>75535</v>
+      </c>
+      <c r="F19" s="34">
         <f>F16/F18</f>
         <v>821272</v>
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="9">
         <f>(C17/C16)-1</f>
-        <v>0.12441185273870103</v>
+        <v>0.12567808023625027</v>
       </c>
       <c r="D20" s="9">
         <f>(D17/D16)-1</f>
-        <v>8.3208020050125286E-2</v>
+        <v>7.9699248120300714E-2</v>
       </c>
       <c r="E20" s="9">
         <f>(E17/E16)-1</f>
-        <v>-1.8120631633445905E-3</v>
-      </c>
-      <c r="F20" s="54">
+        <v>3.157476666446013E-2</v>
+      </c>
+      <c r="F20" s="35">
         <f>(F17/F16)-1</f>
-        <v>6.5025959730759197E-2</v>
+        <v>7.4462541033908369E-2</v>
       </c>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="47">
+        <f>SUM(C16:G16)</f>
+        <v>5145257</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="50">
+        <f>SUM(C17:G17)</f>
+        <v>5692286</v>
+      </c>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="55">
-        <f>SUM(C16:G16)</f>
-        <v>4737647</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
+      <c r="C23" s="50">
+        <f>C22-C21</f>
+        <v>547029</v>
+      </c>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+    </row>
+    <row r="24" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="58">
-        <f>SUM(C17:G17)</f>
-        <v>5246376</v>
-      </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="58">
-        <f>C22-C21</f>
-        <v>508729</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-    </row>
-    <row r="24" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="61">
+      <c r="C24" s="53">
         <f>(C22/C21)-1</f>
-        <v>0.10738009817953942</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-    </row>
-    <row r="25" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="2:7" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="B26" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+        <v>0.10631713828871914</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="2:11" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B26" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="82"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>424328</v>
+        <v>2162644</v>
       </c>
       <c r="D28" s="2">
         <v>473346</v>
@@ -2735,167 +2914,546 @@
       <c r="E28" s="2">
         <v>324151</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="2">
         <v>168514</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="2">
         <v>125417</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="76">
+        <v>206245</v>
+      </c>
+      <c r="I28" s="76">
+        <v>84016</v>
+      </c>
+      <c r="J28" s="76">
+        <v>132617</v>
+      </c>
+      <c r="K28" s="77">
+        <v>310800</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2">
-        <v>483303</v>
+        <f>1005759+1270526</f>
+        <v>2276285</v>
       </c>
       <c r="D29" s="2">
-        <v>425642</v>
+        <v>444826</v>
       </c>
       <c r="E29" s="2">
-        <v>302857</v>
-      </c>
-      <c r="F29" s="51">
-        <v>157838</v>
-      </c>
-      <c r="G29" s="8">
-        <v>137399</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="20">
+        <v>309313</v>
+      </c>
+      <c r="F29" s="2">
+        <v>160622</v>
+      </c>
+      <c r="G29" s="2">
+        <v>159210</v>
+      </c>
+      <c r="H29" s="76">
+        <v>206080</v>
+      </c>
+      <c r="I29" s="76">
+        <v>88049</v>
+      </c>
+      <c r="J29" s="76">
+        <v>139638</v>
+      </c>
+      <c r="K29" s="77">
+        <v>310476</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="95">
+        <v>9</v>
+      </c>
+      <c r="D30" s="95">
+        <v>1</v>
+      </c>
+      <c r="E30" s="95">
+        <v>1</v>
+      </c>
+      <c r="F30" s="95">
+        <v>12</v>
+      </c>
+      <c r="G30" s="95">
+        <v>6</v>
+      </c>
+      <c r="H30" s="78">
+        <v>4</v>
+      </c>
+      <c r="I30" s="78">
+        <v>1</v>
+      </c>
+      <c r="J30" s="78">
+        <v>4</v>
+      </c>
+      <c r="K30" s="79">
         <v>2</v>
       </c>
-      <c r="D30" s="20">
-        <v>1</v>
-      </c>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="52">
-        <v>12</v>
-      </c>
-      <c r="G30" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="18">
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="2">
         <f>C28/C30</f>
-        <v>212164</v>
-      </c>
-      <c r="D31" s="18">
+        <v>240293.77777777778</v>
+      </c>
+      <c r="D31" s="2">
         <f>D28/D30</f>
         <v>473346</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="2">
         <f>E28/E30</f>
         <v>324151</v>
       </c>
-      <c r="F31" s="53">
+      <c r="F31" s="2">
         <f>F28/F30</f>
         <v>14042.833333333334</v>
       </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="2">
+        <f t="shared" ref="G31:H31" si="0">G28/G30</f>
+        <v>20902.833333333332</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="0"/>
+        <v>51561.25</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31" si="1">I28/I30</f>
+        <v>84016</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" ref="J31:K31" si="2">J28/J30</f>
+        <v>33154.25</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="2"/>
+        <v>155400</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="9">
         <f>(C29/C28)-1</f>
-        <v>0.13898446484794791</v>
+        <v>5.2547252344814943E-2</v>
       </c>
       <c r="D32" s="9">
         <f>(D29/D28)-1</f>
-        <v>-0.10078040165122337</v>
+        <v>-6.0251908751737582E-2</v>
       </c>
       <c r="E32" s="9">
         <f>(E29/E28)-1</f>
-        <v>-6.5691606689474935E-2</v>
-      </c>
-      <c r="F32" s="54">
+        <v>-4.5774962903091465E-2</v>
+      </c>
+      <c r="F32" s="9">
         <f>(F29/F28)-1</f>
-        <v>-6.335378662900415E-2</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+        <v>-4.6832904091054783E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" ref="G32:H32" si="3">(G29/G28)-1</f>
+        <v>0.26944513104284118</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.0001939440954573E-4</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32:J32" si="4">(I29/I28)-1</f>
+        <v>4.8002761378785008E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <f t="shared" si="4"/>
+        <v>5.294193052172802E-2</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" ref="K32" si="5">(K29/K28)-1</f>
+        <v>-1.042471042471016E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="71">
+        <f>SUM(C28:K28)</f>
+        <v>3987750</v>
+      </c>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="84"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="72">
+        <f>SUM(C29:K29)</f>
+        <v>4094499</v>
+      </c>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="55">
-        <f>SUM(C28:G28)</f>
-        <v>1515756</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B34" s="6" t="s">
+      <c r="C35" s="72">
+        <f>C34-C33</f>
+        <v>106749</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+    </row>
+    <row r="36" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="58">
-        <f>SUM(C29:G29)</f>
-        <v>1507039</v>
-      </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="L34" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="72">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="58">
-        <f>C34-C33</f>
-        <v>-8717</v>
-      </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-    </row>
-    <row r="36" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="61">
+      <c r="C36" s="73">
         <f>(C34/C33)-1</f>
-        <v>-5.7509256107183271E-3</v>
-      </c>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+        <v>2.6769230769230878E-2</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="88"/>
+    </row>
+    <row r="37" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="2:11" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2">
+        <v>235739</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>236500</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="20">
+        <v>174</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="21"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="18">
+        <f>C40/C42</f>
+        <v>1354.8218390804598</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9">
+        <f>(C41/C40)-1</f>
+        <v>3.2281463822279033E-3</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="47">
+        <f>SUM(C40:G40)</f>
+        <v>235739</v>
+      </c>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="50">
+        <f>SUM(C41:G41)</f>
+        <v>236500</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="50">
+        <f>C46-C45</f>
+        <v>761</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="53">
+        <f>(C46/C45)-1</f>
+        <v>3.2281463822279033E-3</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="2:7" ht="25.2" x14ac:dyDescent="0.4">
+      <c r="B50" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="4"/>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>39135</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20835</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45738</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22925</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="89">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="D54" s="20">
+        <v>5</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="21"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="18">
+        <f>C52/C54</f>
+        <v>4604117.6470588231</v>
+      </c>
+      <c r="D55" s="18">
+        <f>D52/D54</f>
+        <v>4167</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="9">
+        <f>(C53/C52)-1</f>
+        <v>0.16872364890762737</v>
+      </c>
+      <c r="D56" s="9">
+        <f>(D53/D52)-1</f>
+        <v>0.10031197504199674</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="47">
+        <f>SUM(C52:G52)</f>
+        <v>59970</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="50">
+        <f>SUM(C53:G53)</f>
+        <v>68663</v>
+      </c>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="50">
+        <f>C58-C57</f>
+        <v>8693</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="53">
+        <f>(C58/C57)-1</f>
+        <v>0.14495581123895285</v>
+      </c>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
+  <mergeCells count="27">
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="C24:G24"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C9:G9"/>
